--- a/非受控文档/过程文档/需求优先级打分表/PRD2018-G18-手机端学生优先级打分表（answer）.xlsx
+++ b/非受控文档/过程文档/需求优先级打分表/PRD2018-G18-手机端学生优先级打分表（answer）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="详情页面" sheetId="1" r:id="rId1"/>
@@ -288,8 +288,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -343,9 +343,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,43 +387,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,35 +417,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,25 +480,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -496,7 +496,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,19 +598,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,13 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,13 +646,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,125 +676,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -798,6 +813,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -825,8 +875,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,41 +910,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -903,10 +918,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -915,252 +930,255 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1484,7 +1502,7 @@
   <sheetPr/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12:J12"/>
     </sheetView>
   </sheetViews>
@@ -1537,446 +1555,446 @@
       <c r="Q2" s="15"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="16">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="34"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="35"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="35"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="36"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="35"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="36"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="35"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="36"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="36"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="21" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="21" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="23" t="s">
+      <c r="L9" s="23"/>
+      <c r="M9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="21">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="22">
         <v>1</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23">
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24">
         <v>1</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="21">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="22">
         <v>2</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23">
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24">
         <v>2</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="23" t="s">
+      <c r="L11" s="23"/>
+      <c r="M11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="23"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="21">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="22">
         <v>3</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23">
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24">
         <v>3</v>
       </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="23" t="s">
+      <c r="L12" s="23"/>
+      <c r="M12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="21">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="22">
         <v>4</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23">
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24">
         <v>4</v>
       </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="23" t="s">
+      <c r="L13" s="23"/>
+      <c r="M13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="23"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="21">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="22">
         <v>5</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="23"/>
+      <c r="F14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23">
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24">
         <v>5</v>
       </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="23" t="s">
+      <c r="L14" s="23"/>
+      <c r="M14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="23"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="21">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="22">
         <v>6</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23" t="s">
+      <c r="E15" s="23"/>
+      <c r="F15" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23">
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24">
         <v>6</v>
       </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23" t="s">
+      <c r="L15" s="23"/>
+      <c r="M15" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="23"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="21">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="22">
         <v>7</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23">
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24">
         <v>7</v>
       </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="23" t="s">
+      <c r="L16" s="23"/>
+      <c r="M16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="23"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="21">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="22">
         <v>8</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23">
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="24">
         <v>8</v>
       </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="23" t="s">
+      <c r="L17" s="23"/>
+      <c r="M17" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="21">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="22">
         <v>9</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23">
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24">
         <v>9</v>
       </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23" t="s">
+      <c r="L18" s="23"/>
+      <c r="M18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="23"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="16">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17">
         <v>2</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="37"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="38"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" ht="20.25" spans="1:17">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="29">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="30">
         <v>3</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="31" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="13"/>
@@ -1994,12 +2012,12 @@
       <c r="Q21" s="15"/>
     </row>
     <row r="22" ht="20.25" spans="1:17">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="29">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="30">
         <v>4</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="13"/>
@@ -2017,111 +2035,111 @@
       <c r="Q22" s="15"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="31">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="32">
         <v>5</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
     </row>
     <row r="28" ht="20.25" spans="1:17">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="29">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="30">
         <v>6</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="13"/>
@@ -2205,8 +2223,8 @@
   <sheetPr/>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2338,25 +2356,25 @@
         <v>8</v>
       </c>
       <c r="I5" s="9">
-        <f>2*G5+H5</f>
+        <f t="shared" ref="I5:I11" si="0">2*G5+H5</f>
         <v>24</v>
       </c>
       <c r="J5" s="11">
-        <f t="shared" ref="J5:N5" si="0">I5/I$24</f>
+        <f t="shared" ref="J5:N5" si="1">I5/I$24</f>
         <v>0.0738461538461539</v>
       </c>
       <c r="K5" s="9">
         <v>1</v>
       </c>
       <c r="L5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.0196078431372549</v>
       </c>
       <c r="M5" s="9">
         <v>4</v>
       </c>
       <c r="N5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.0606060606060606</v>
       </c>
       <c r="O5" s="4">
@@ -2382,25 +2400,25 @@
         <v>8</v>
       </c>
       <c r="I6" s="9">
-        <f>2*G6+H6</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="J6" s="11">
-        <f t="shared" ref="J6:N6" si="1">I6/I$24</f>
+        <f t="shared" ref="J6:N6" si="2">I6/I$24</f>
         <v>0.0615384615384615</v>
       </c>
       <c r="K6" s="9">
         <v>1</v>
       </c>
       <c r="L6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.0196078431372549</v>
       </c>
       <c r="M6" s="9">
         <v>4</v>
       </c>
       <c r="N6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.0606060606060606</v>
       </c>
       <c r="O6" s="4">
@@ -2426,25 +2444,25 @@
         <v>7</v>
       </c>
       <c r="I7" s="9">
-        <f>2*G7+H7</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="J7" s="11">
-        <f t="shared" ref="J7:N7" si="2">I7/I$24</f>
+        <f t="shared" ref="J7:N7" si="3">I7/I$24</f>
         <v>0.0646153846153846</v>
       </c>
       <c r="K7" s="9">
         <v>2</v>
       </c>
       <c r="L7" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.0392156862745098</v>
       </c>
       <c r="M7" s="9">
         <v>3</v>
       </c>
       <c r="N7" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.0454545454545455</v>
       </c>
       <c r="O7" s="4">
@@ -2470,25 +2488,25 @@
         <v>5</v>
       </c>
       <c r="I8" s="9">
-        <f>2*G8+H8</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="J8" s="11">
-        <f t="shared" ref="J8:N8" si="3">I8/I$24</f>
+        <f t="shared" ref="J8:N8" si="4">I8/I$24</f>
         <v>0.0523076923076923</v>
       </c>
       <c r="K8" s="9">
         <v>2</v>
       </c>
       <c r="L8" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0392156862745098</v>
       </c>
       <c r="M8" s="9">
         <v>2</v>
       </c>
       <c r="N8" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0303030303030303</v>
       </c>
       <c r="O8" s="4">
@@ -2514,25 +2532,25 @@
         <v>7</v>
       </c>
       <c r="I9" s="9">
-        <f>2*G9+H9</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="J9" s="11">
-        <f t="shared" ref="J9:N9" si="4">I9/I$24</f>
+        <f t="shared" ref="J9:N9" si="5">I9/I$24</f>
         <v>0.0646153846153846</v>
       </c>
       <c r="K9" s="9">
         <v>3</v>
       </c>
       <c r="L9" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.0588235294117647</v>
       </c>
       <c r="M9" s="9">
         <v>2</v>
       </c>
       <c r="N9" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.0303030303030303</v>
       </c>
       <c r="O9" s="4">
@@ -2558,25 +2576,25 @@
         <v>4</v>
       </c>
       <c r="I10" s="9">
-        <f>2*G10+H10</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="J10" s="11">
-        <f t="shared" ref="J10:N10" si="5">I10/I$24</f>
+        <f t="shared" ref="J10:N10" si="6">I10/I$24</f>
         <v>0.0430769230769231</v>
       </c>
       <c r="K10" s="9">
         <v>2</v>
       </c>
       <c r="L10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.0392156862745098</v>
       </c>
       <c r="M10" s="9">
         <v>2</v>
       </c>
       <c r="N10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.0303030303030303</v>
       </c>
       <c r="O10" s="4">
@@ -2602,25 +2620,25 @@
         <v>7</v>
       </c>
       <c r="I11" s="9">
-        <f>2*G11+H11</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="J11" s="11">
-        <f t="shared" ref="J11:N11" si="6">I11/I$24</f>
+        <f t="shared" ref="J11:N11" si="7">I11/I$24</f>
         <v>0.0584615384615385</v>
       </c>
       <c r="K11" s="9">
         <v>3</v>
       </c>
       <c r="L11" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.0588235294117647</v>
       </c>
       <c r="M11" s="9">
         <v>3</v>
       </c>
       <c r="N11" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.0454545454545455</v>
       </c>
       <c r="O11" s="4">
@@ -2646,25 +2664,25 @@
         <v>6</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" ref="I12:I24" si="7">2*G12+H12</f>
+        <f t="shared" ref="I12:I24" si="8">2*G12+H12</f>
         <v>16</v>
       </c>
       <c r="J12" s="11">
-        <f t="shared" ref="J12:N12" si="8">I12/I$24</f>
+        <f t="shared" ref="J12:N12" si="9">I12/I$24</f>
         <v>0.0492307692307692</v>
       </c>
       <c r="K12" s="9">
         <v>3</v>
       </c>
       <c r="L12" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.0588235294117647</v>
       </c>
       <c r="M12" s="9">
         <v>2</v>
       </c>
       <c r="N12" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.0303030303030303</v>
       </c>
       <c r="O12" s="4">
@@ -2690,25 +2708,25 @@
         <v>5</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="J13" s="11">
-        <f t="shared" ref="J13:N13" si="9">I13/I$24</f>
+        <f t="shared" ref="J13:N13" si="10">I13/I$24</f>
         <v>0.0461538461538462</v>
       </c>
       <c r="K13" s="9">
         <v>3</v>
       </c>
       <c r="L13" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.0588235294117647</v>
       </c>
       <c r="M13" s="9">
         <v>2</v>
       </c>
       <c r="N13" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.0303030303030303</v>
       </c>
       <c r="O13" s="4">
@@ -2734,25 +2752,25 @@
         <v>5</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="J14" s="11">
-        <f t="shared" ref="J14:N14" si="10">I14/I$24</f>
+        <f t="shared" ref="J14:N14" si="11">I14/I$24</f>
         <v>0.0461538461538462</v>
       </c>
       <c r="K14" s="9">
         <v>3</v>
       </c>
       <c r="L14" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.0588235294117647</v>
       </c>
       <c r="M14" s="9">
         <v>2</v>
       </c>
       <c r="N14" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.0303030303030303</v>
       </c>
       <c r="O14" s="4">
@@ -2778,25 +2796,25 @@
         <v>7</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="J15" s="11">
-        <f t="shared" ref="J15:N15" si="11">I15/I$24</f>
+        <f t="shared" ref="J15:N15" si="12">I15/I$24</f>
         <v>0.0646153846153846</v>
       </c>
       <c r="K15" s="9">
         <v>3</v>
       </c>
       <c r="L15" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.0588235294117647</v>
       </c>
       <c r="M15" s="9">
         <v>6</v>
       </c>
       <c r="N15" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.0909090909090909</v>
       </c>
       <c r="O15" s="4">
@@ -2822,25 +2840,25 @@
         <v>6</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="J16" s="11">
-        <f t="shared" ref="J16:N16" si="12">I16/I$24</f>
+        <f t="shared" ref="J16:N16" si="13">I16/I$24</f>
         <v>0.0553846153846154</v>
       </c>
       <c r="K16" s="9">
         <v>3</v>
       </c>
       <c r="L16" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.0588235294117647</v>
       </c>
       <c r="M16" s="9">
         <v>5</v>
       </c>
       <c r="N16" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.0757575757575758</v>
       </c>
       <c r="O16" s="4">
@@ -2866,25 +2884,25 @@
         <v>7</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="J17" s="11">
-        <f t="shared" ref="J17:N17" si="13">I17/I$24</f>
+        <f t="shared" ref="J17:N17" si="14">I17/I$24</f>
         <v>0.0584615384615385</v>
       </c>
       <c r="K17" s="9">
         <v>3</v>
       </c>
       <c r="L17" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.0588235294117647</v>
       </c>
       <c r="M17" s="9">
         <v>6</v>
       </c>
       <c r="N17" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.0909090909090909</v>
       </c>
       <c r="O17" s="4">
@@ -2910,25 +2928,25 @@
         <v>4</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="J18" s="11">
-        <f t="shared" ref="J18:N18" si="14">I18/I$24</f>
+        <f t="shared" ref="J18:N18" si="15">I18/I$24</f>
         <v>0.0430769230769231</v>
       </c>
       <c r="K18" s="9">
         <v>2</v>
       </c>
       <c r="L18" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.0392156862745098</v>
       </c>
       <c r="M18" s="9">
         <v>5</v>
       </c>
       <c r="N18" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.0757575757575758</v>
       </c>
       <c r="O18" s="4">
@@ -2954,25 +2972,25 @@
         <v>5</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="J19" s="11">
-        <f t="shared" ref="J19:N19" si="15">I19/I$24</f>
+        <f t="shared" ref="J19:N19" si="16">I19/I$24</f>
         <v>0.0523076923076923</v>
       </c>
       <c r="K19" s="9">
         <v>3</v>
       </c>
       <c r="L19" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.0588235294117647</v>
       </c>
       <c r="M19" s="9">
         <v>6</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.0909090909090909</v>
       </c>
       <c r="O19" s="4">
@@ -2980,7 +2998,7 @@
         <v>0.934685314685315</v>
       </c>
     </row>
-    <row r="20" ht="57" spans="1:15">
+    <row r="20" ht="42.75" spans="1:15">
       <c r="A20" s="7" t="s">
         <v>76</v>
       </c>
@@ -2998,25 +3016,25 @@
         <v>3</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="J20" s="11">
-        <f t="shared" ref="J20:N20" si="16">I20/I$24</f>
+        <f t="shared" ref="J20:N20" si="17">I20/I$24</f>
         <v>0.0461538461538462</v>
       </c>
       <c r="K20" s="9">
         <v>4</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.0784313725490196</v>
       </c>
       <c r="M20" s="9">
         <v>2</v>
       </c>
       <c r="N20" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.0303030303030303</v>
       </c>
       <c r="O20" s="4">
@@ -3042,25 +3060,25 @@
         <v>4</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="J21" s="11">
-        <f t="shared" ref="J21:N21" si="17">I21/I$24</f>
+        <f t="shared" ref="J21:N21" si="18">I21/I$24</f>
         <v>0.0369230769230769</v>
       </c>
       <c r="K21" s="9">
         <v>3</v>
       </c>
       <c r="L21" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.0588235294117647</v>
       </c>
       <c r="M21" s="9">
         <v>3</v>
       </c>
       <c r="N21" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.0454545454545455</v>
       </c>
       <c r="O21" s="4">
@@ -3086,25 +3104,25 @@
         <v>6</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="J22" s="11">
-        <f t="shared" ref="J22:N22" si="18">I22/I$24</f>
+        <f t="shared" ref="J22:N22" si="19">I22/I$24</f>
         <v>0.0430769230769231</v>
       </c>
       <c r="K22" s="9">
         <v>3</v>
       </c>
       <c r="L22" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.0588235294117647</v>
       </c>
       <c r="M22" s="9">
         <v>5</v>
       </c>
       <c r="N22" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.0757575757575758</v>
       </c>
       <c r="O22" s="4">
@@ -3130,25 +3148,25 @@
         <v>5</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="J23" s="11">
-        <f t="shared" ref="J23:N23" si="19">I23/I$24</f>
+        <f t="shared" ref="J23:N23" si="20">I23/I$24</f>
         <v>0.04</v>
       </c>
       <c r="K23" s="9">
         <v>4</v>
       </c>
       <c r="L23" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.0784313725490196</v>
       </c>
       <c r="M23" s="9">
         <v>2</v>
       </c>
       <c r="N23" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.0303030303030303</v>
       </c>
       <c r="O23" s="4">
@@ -3174,11 +3192,11 @@
         <v>109</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>325</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" ref="J24:N24" si="20">I24/I$24</f>
+        <f t="shared" ref="J24:N24" si="21">I24/I$24</f>
         <v>1</v>
       </c>
       <c r="K24" s="9">
@@ -3186,7 +3204,7 @@
         <v>51</v>
       </c>
       <c r="L24" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="M24" s="9">
@@ -3194,7 +3212,7 @@
         <v>66</v>
       </c>
       <c r="N24" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="O24" s="4"/>
